--- a/simulations/raw_inclusion_exclusion/Hall_2012 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Hall_2012 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8893437962015239</v>
+        <v>0.9111793472080064</v>
       </c>
       <c r="I3">
-        <v>0.03096200324017104</v>
+        <v>0.008115920217427871</v>
       </c>
       <c r="J3">
         <v>0.8942307692307693</v>
       </c>
       <c r="K3">
-        <v>321.5288461538461</v>
+        <v>123.0192307692308</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -755,34 +755,34 @@
         <v>93</v>
       </c>
       <c r="Q3">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="S3">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="T3">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="U3">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="V3">
-        <v>8477</v>
+        <v>8683</v>
       </c>
       <c r="W3">
-        <v>8470</v>
+        <v>8671</v>
       </c>
       <c r="X3">
-        <v>8444</v>
+        <v>8646</v>
       </c>
       <c r="Y3">
-        <v>8411</v>
+        <v>8605</v>
       </c>
       <c r="Z3">
-        <v>8403</v>
+        <v>8591</v>
       </c>
       <c r="AA3">
         <v>94</v>
@@ -800,19 +800,19 @@
         <v>11</v>
       </c>
       <c r="AF3">
-        <v>0.9756010000000001</v>
+        <v>0.999309</v>
       </c>
       <c r="AG3">
-        <v>0.974796</v>
+        <v>0.997928</v>
       </c>
       <c r="AH3">
-        <v>0.971803</v>
+        <v>0.995051</v>
       </c>
       <c r="AI3">
-        <v>0.968006</v>
+        <v>0.990333</v>
       </c>
       <c r="AJ3">
-        <v>0.967085</v>
+        <v>0.988721</v>
       </c>
     </row>
   </sheetData>
